--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45453</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45696</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45999</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44245</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45986</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45831</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>46052</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>45664</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44673</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45858.32641203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45986</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45642.55074074074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>45664</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>45664</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45463</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45664</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44658.62614583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45915.39149305555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>45938.72043981482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45740</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45433</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45239</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44456</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44839.5678125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45680</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45824.59027777778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>45915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>45918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>45835.52969907408</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>45834</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45254.4122337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>45841.52672453703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45638</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45938</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45642.41423611111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45952</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45887.58668981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45622.7453125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44236</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>46026.65243055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>46037.62674768519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>45644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44867</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>46008.58657407408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>45545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45035.9266087963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45664</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45463</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>44854</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44868</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44491.61055555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44852.61033564815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>44239</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44617</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44280</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>44868</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>44778.92490740741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>44362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44634</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44363</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44868</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44746.92638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44337</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44239</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44586</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44491.60335648148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44456.59774305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44558</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>44658.62795138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44264</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44477</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44379</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44376.67407407407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>44676.60796296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44657</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>44692.93740740741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>44746</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>44783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>44526</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>44617</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>44371.61725694445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>44620</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44837</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>44839</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>44558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>44550</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>44789</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44552</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44558</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44459</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44491</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44841.59989583334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44800</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44529</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44446</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44272</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44327</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44565.92913194445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44543.92140046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44245</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44620.92225694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44620.92230324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44852.58707175926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44558</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44264</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44839</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44977</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45342</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45469.66545138889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45369</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44897</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45392</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>44946</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45328</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45659.51113425926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45642.56950231481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45035.92709490741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44992</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45565.38912037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45565.39958333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45751.34513888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45582</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45482.92732638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45646.56238425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45646.56674768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45142.4560300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45618.44335648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45390</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45278.42126157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45701.49048611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45573.59376157408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45035.92607638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45462</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45496.95108796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45205</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45205</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45769.47217592593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45566.64958333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45558.41288194444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45664</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45664</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44854</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44861</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45688.68416666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45660.6911574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45886.34465277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45610</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45688.68412037037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45351</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44867</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45638.75081018519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45330.46430555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45688.6995949074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45603.74953703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45687.40212962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45884.65607638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45887.53751157408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45230</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45194</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45727</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45884.65483796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44966</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45889.38579861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45824.63576388889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45385</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45792</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45813.34618055556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45589.34434027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45469.68552083334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45813</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45635.45822916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45890.61241898148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45890</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45890.44831018519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45561.72005787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45040.94335648148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45817</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45895.65347222222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45758.69814814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45661</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45463</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45701.63607638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44426</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45897.28637731481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45896.61263888889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45799.3653587963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44832</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45896.6166087963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45807</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45603.49142361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45484</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45862.48990740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45770.46388888889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45862.53150462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45565.49769675926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45770.57881944445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45595.37256944444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45393</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45412</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45897.93575231481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45496</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>45496</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>45677.40685185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45505</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45824</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45110</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45618.44334490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45904.51274305556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45904.51621527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45659.59091435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45601.67827546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45909.66664351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>45909.66799768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>45909.66228009259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>45909.6640625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45825.3443287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45702.40306712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45824.58546296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45826.57041666667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45826</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45910.40729166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45826.38290509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45827.40512731481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45826.61388888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45826.6207175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45826.65047453704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45915</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45827.4106712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45915</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44937</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45915.38332175926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45826.58424768518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45826.59502314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>44810</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45827.39997685186</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45827.40238425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45826.6047800926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45917.55898148148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45831</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45831.40694444445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45224</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45831</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45279</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44994</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45918</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44886</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45918</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45205</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45632</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45922.5109837963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45832.36484953704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45922.51094907407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45922.51091435185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45160</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45924.5737962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45208</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45086</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45665</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45925.68186342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>44239</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45925</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45925</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45925.61494212963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>44960</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>45694</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45835.59313657408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45924</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45399.36019675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45835.63332175926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45679.40358796297</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45685</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45614.69736111111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45835.49930555555</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45833.87428240741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45835.53480324074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45356.96326388889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45621.42574074074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45835.64934027778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45663</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45926.3683912037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45835.63008101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45469.67459490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45835.64260416666</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45341</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45930</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45420</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45838.41540509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45932.46949074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45838.41660879629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45838.41445601852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45932.38608796296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45932.54988425926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45932.56042824074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45841.69819444444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45540</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45936.65599537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45936.63619212963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45826</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45936.42197916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45936.61344907407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44477</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44477</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45938.95688657407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>45841.61747685185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45433.45890046296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>45841.65722222222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45225</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>45938.40929398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45939.36579861111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45113</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44735.5158912037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45943</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45758.69832175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45943.68516203704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45943.68868055556</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45670.69847222222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45712.56173611111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45945.47056712963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45643.48357638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45575.66403935185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45945.57474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45847</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45945.4567824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45945.46797453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45946.65719907408</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45946.63664351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45946.63673611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45947.55820601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45946.59548611111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45947.34571759259</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45946.65706018519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45946.59561342592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45946.5737037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45947.34578703704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45685.92931712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45950.46918981482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45950.61075231482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45642.59327546296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45949.40681712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45664</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45035.92714120371</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45580.34554398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45953.65697916667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44981</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45952</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45859.92579861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45342</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45953.65693287037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45952.44763888889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45956.38578703703</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44897</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44897</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45956.34443287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45956.34490740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45957.65459490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44985</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45957</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44316.52800925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45954.55297453704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45771.71908564815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45956.34488425926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45956.34519675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>45956.36496527777</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45957</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45956.34459490741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45958.67831018518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45646.61081018519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45187</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45583</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>44977</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>44977</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>44617</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>44977</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>44977</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45566.59611111111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>44664</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45560.69846064815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45560.6984837963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45477.92725694444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45960.6988425926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45960.60210648148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45965</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45964.70950231481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45965.50621527778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45964.70471064815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45881.61543981481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45965.44887731481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45965.66197916667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45965.66282407408</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45880.95241898148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45964.6821875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45965.58432870371</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45880.94430555555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45965.49263888889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45965.50042824074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45644.54008101852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45371</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45968.34435185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45883.64178240741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45971.49157407408</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45644.34611111111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45972</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45629</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45972</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45975</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45884</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44565.92903935185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>45974.34443287037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45646.54873842592</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45975.62664351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45975.72868055556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45978.50950231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45886.34490740741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45708</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45708</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45708</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45978.61122685186</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45708</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45979.61831018519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>46021.46907407408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45978.49459490741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45712.58021990741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45721</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>46018.78116898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45979.40319444444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>45224</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45978</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44876.57346064815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45978.50525462963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45379</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>44999</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>45572.54814814815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>45978</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>45978</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>46020.47179398148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30970,7 +30970,7 @@
         <v>45740</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>45553.3859837963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44239</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45161.94293981481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45251</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44973</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45981.49033564814</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45981.54108796296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44974.36233796296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45381</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>46026.64652777778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>46027.53427083333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>46024.60086805555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45691.46903935185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44917</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45714</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45982.51090277778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>46027.56204861111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>46027.55047453703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45215</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>46027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44459</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45247</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>45533</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44859</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45712.58931712963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>45988.63575231482</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>46030.44842592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45701.49054398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45989.556875</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45642.58465277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46030</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>45708</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>45989.64967592592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>45098</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>45098</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>45706.785</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45989</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46020</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46034.55488425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>46034.55892361111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45992</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45992.56959490741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45992</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45992.45798611111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>45992</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45740</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>45740</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45740</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>45993</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45385</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45385</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>45993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45990.65666666667</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45758</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>45758.69837962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>46034.56065972222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>45992.44833333333</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45992</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45992</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45251</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45992.45686342593</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>46034.55708333333</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45729.36509259259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>45303</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44442.43422453704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45629.62572916667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>45659.51613425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>46035.57373842593</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
         <v>46037.45152777778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35114,7 +35114,7 @@
         <v>46035.57366898148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>45995</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35233,7 +35233,7 @@
         <v>45995.34258101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35290,7 +35290,7 @@
         <v>45161</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45770.47331018518</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45756.58515046296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45476.76228009259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45996</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>45999</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>45996.60962962963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35689,7 +35689,7 @@
         <v>45996.59778935185</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>45996.60475694444</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>46041.66591435186</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45670.45391203704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>46037.46954861111</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>46037.49084490741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>46041.66304398148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45610</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44883.92393518519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45527</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>45740</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>46000.44612268519</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>46000.6856712963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44895</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>46001.68658564815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45035</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45670.69877314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>45679</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>46045.44876157407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45596.72625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45691.57331018519</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>45001</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>46002.41836805556</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>46006</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37077,7 +37077,7 @@
         <v>46006.5471412037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>45183</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45589</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>46006.54866898148</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37310,7 +37310,7 @@
         <v>46007.69832175926</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44890</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>46006.54785879629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45412</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>46009</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>46005</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45558.6815162037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>46009.53162037037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>44546.92277777778</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>46008.61600694444</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44322</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45706</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45978</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>46009.34431712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>45484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45644</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>46010.51313657407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>45436</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>45685</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>46010.46950231482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>46010.47768518519</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45916</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>45635</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45635</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44490.43877314815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>46010.67465277778</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>46010.47444444444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45916</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45916</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>46010</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>46010</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>46010</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>46010</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45470.93118055556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>46012.60145833333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>46010</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45443</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>44400</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>46010.4771875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45691.42896990741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45691.45101851852</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>46010</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45443</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44852</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>45496</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45350</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45379</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45461</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>45112</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>46010</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45638</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>46059.57208333333</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44384</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44385</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45344</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45719</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45264</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45681.46563657407</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45075</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45012</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>45756</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>45756.60434027778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44897</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>45562.35875</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>45077.82532407407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>45670.55724537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41169,7 +41169,7 @@
         <v>45688.69949074074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41226,7 +41226,7 @@
         <v>45255</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41283,7 +41283,7 @@
         <v>45596</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>45665</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41397,7 +41397,7 @@
         <v>45378</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41454,7 +41454,7 @@
         <v>45379</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41511,7 +41511,7 @@
         <v>45412</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44384</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>45232</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>45723.65663194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44496</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>45091</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>45212</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41977,7 +41977,7 @@
         <v>45212.95483796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         <v>45573.60027777778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42096,7 +42096,7 @@
         <v>45562</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>45663</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42267,7 +42267,7 @@
         <v>45664</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42324,7 +42324,7 @@
         <v>45077</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>45225</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44579</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>45204</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>45264</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45323</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45106</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45342</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45016</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>44546.92262731482</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45601.68076388889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45601.68283564815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45463</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45714</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45544</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>44334</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45771.71979166667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43298,7 +43298,7 @@
         <v>44960.92371527778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43355,7 +43355,7 @@
         <v>44960</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43412,7 +43412,7 @@
         <v>45187</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43469,7 +43469,7 @@
         <v>45232</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43526,7 +43526,7 @@
         <v>44445</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44722.57129629629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44872</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44985</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44917</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44580</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>45663</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>45309</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45204</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45255</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45530.39005787037</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45411</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45411</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45558.62070601852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>45104</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44263.39423611111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>45323</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44897.92459490741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>45701</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>45618.47244212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>45327</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45501.91951388889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45663</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>45720.5630787037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>45749.64261574074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44859</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44610</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45392.92930555555</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44473</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44897.92487268519</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44966</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45379</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45712</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45013</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>45676.8134375</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45712</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45653.48405092592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>45727</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45328</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45441.9291087963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45639</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45054</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>44441</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>45629.36509259259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>45727</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>44995</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>45692.55262731481</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>44463</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>45683</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>45260</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>45708</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45219</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45792</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45615.62185185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45792</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>45792</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>45499</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>45140</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>45699.56368055556</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47184,7 +47184,7 @@
         <v>44859</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47241,7 +47241,7 @@
         <v>45659.45902777778</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47298,7 +47298,7 @@
         <v>45639.64152777778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47355,7 +47355,7 @@
         <v>45688.68407407407</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>45700.59357638889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45453</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45696</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45999</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44245</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45986</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>45043</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45831</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>44490</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>46052</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>45664</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
         <v>44673</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45858.32641203704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>45986</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45642.55074074074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>45664</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>45664</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>45463</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45664</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>44658.62614583333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45915.39149305555</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>45938.72043981482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45740</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>45433</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45239</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>44456</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44839.5678125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44477</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44733</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45680</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45824.59027777778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>45915</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>45918</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>45835.52969907408</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>45834</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45254.4122337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>45841.52672453703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>45638</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45938</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45642.41423611111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45952</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45887.58668981482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>45727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45622.7453125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44236</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>46026.65243055556</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>46037.62674768519</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>45644</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>44867</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>46008.58657407408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44951</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>45545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>45035.9266087963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>45664</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         <v>45463</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>44854</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>44868</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>44481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44491.61055555556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44852.61033564815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>44239</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44617</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>44280</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>44868</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>44778.92490740741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>44362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>44634</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>44363</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>44868</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>44558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>44852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44746.92638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>44337</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>44239</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>44586</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44868</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>44491.60335648148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44456.59774305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44558</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>44658.62795138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>44264</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44477</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>44379</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>44376.67407407407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>44676.60796296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>44558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44657</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>44692.93740740741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>44746</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>44783</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>44526</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>44617</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         <v>44552</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         <v>44371.61725694445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>44620</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44837</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>44839</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>44558</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>44550</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>44789</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>44347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>44552</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>44558</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44459</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44491</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44841.59989583334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9122,7 +9122,7 @@
         <v>44800</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>44529</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44446</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44272</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44480</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44327</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44565.92913194445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44543.92140046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44245</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44264</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44620.92225694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44620.92230324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44852.58707175926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44558</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44558</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44264</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44839</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44977</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>45342</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45469.66545138889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45369</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44897</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45392</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>44946</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>45328</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45659.51113425926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>45642.56950231481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>45035.92709490741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44992</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>45565.38912037037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>45565.39958333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>45721</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>45751.34513888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45582</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45482.92732638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45646.56238425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45646.56674768519</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         <v>45142.4560300926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45618.44335648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>45390</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45278.42126157408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45701.49048611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45573.59376157408</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45035.92607638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45462</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45496.95108796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45205</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45205</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45769.47217592593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45566.64958333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45558.41288194444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45463</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45664</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45664</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44435</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44854</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44861</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>45688.68416666667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>45660.6911574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>45886.34465277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45610</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45688.68412037037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45351</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44867</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45638.75081018519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45330.46430555556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45688.6995949074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>45603.74953703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>45687.40212962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>45884.65607638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>45887.53751157408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>45230</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>45194</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>45727</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>45884.65483796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>45145</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44966</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45889.38579861111</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45824.63576388889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>45385</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45792</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45811</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45813.34618055556</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14106,7 +14106,7 @@
         <v>45589.34434027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14168,7 +14168,7 @@
         <v>45463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14225,7 +14225,7 @@
         <v>45469.68552083334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14282,7 +14282,7 @@
         <v>45813</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14339,7 +14339,7 @@
         <v>45635.45822916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14396,7 +14396,7 @@
         <v>45890.61241898148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14453,7 +14453,7 @@
         <v>45890</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>45890.44831018519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45561.72005787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45040.94335648148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>45817</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45895.65347222222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45758.69814814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45661</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45463</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45701.63607638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>44426</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>45897.28637731481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>45896.61263888889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>45799.3653587963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44832</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45896.6166087963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45807</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45603.49142361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45484</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44503</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>45862.48990740741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>45770.46388888889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>45862.53150462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45565.49769675926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45770.57881944445</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>45595.37256944444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>45393</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>45412</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>45897.93575231481</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>45496</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>45496</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16354,7 +16354,7 @@
         <v>45677.40685185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45505</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45824</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45110</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45618.44334490741</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45727</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>45904.51274305556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>45904.51621527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>45659.59091435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>45601.67827546296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>45909.66664351852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>45909.66799768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>45909.66228009259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>45909.6640625</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45825.3443287037</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>45702.40306712963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45824.58546296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45826.57041666667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45826</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45910.40729166667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45826.38290509259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45827.40512731481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45826.61388888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45826.6207175926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45826.65047453704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45915</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45827.4106712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45915</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>44937</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45915.38332175926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>45826.58424768518</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45826.59502314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45915</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>44810</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45827.39997685186</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>45827.40238425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45826.6047800926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>45917.55898148148</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45831</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>45831.40694444445</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45224</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45831</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45279</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44994</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45918</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>44886</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45918</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45205</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45632</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45922.5109837963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45832.36484953704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45922</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45922.51094907407</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19529,7 +19529,7 @@
         <v>45918</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>45922.51091435185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19643,7 +19643,7 @@
         <v>45111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45918</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45160</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>45924.5737962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>45208</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19928,7 +19928,7 @@
         <v>45086</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>45665</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20042,7 +20042,7 @@
         <v>45925.68186342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
         <v>44239</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>45925</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
         <v>45925</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20275,7 +20275,7 @@
         <v>45925.61494212963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>44960</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20389,7 +20389,7 @@
         <v>45694</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20446,7 +20446,7 @@
         <v>45835.59313657408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20503,7 +20503,7 @@
         <v>45924</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20560,7 +20560,7 @@
         <v>45399.36019675926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
         <v>45835.63332175926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         <v>45679.40358796297</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>45685</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45614.69736111111</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45835.49930555555</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45833.87428240741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45835.53480324074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45356.96326388889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45621.42574074074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21140,7 +21140,7 @@
         <v>45835.64934027778</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45663</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45926.3683912037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21311,7 +21311,7 @@
         <v>45835.63008101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
         <v>45469.67459490741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44746</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21482,7 +21482,7 @@
         <v>45835.64260416666</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21539,7 +21539,7 @@
         <v>45224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         <v>45341</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45930</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45420</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>45838.41540509259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45932.46949074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>45838.41660879629</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>45596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45838.41445601852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45932.38608796296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45932.54988425926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45932.56042824074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45841.69819444444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45540</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22347,7 +22347,7 @@
         <v>45936.65599537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>45936.63619212963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>45826</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45936.42197916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45936.61344907407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44477</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44477</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45938.95688657407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>45841.61747685185</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>45433.45890046296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>45841.65722222222</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>45225</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>45938.40929398148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45939.36579861111</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45113</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44735.5158912037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45943</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45758.69832175926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45943.68516203704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45943.68868055556</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45670.69847222222</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>45712.56173611111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45945.47056712963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45643.48357638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45575.66403935185</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45945.57474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45847</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45009</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45945.4567824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45945.46797453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45946.65719907408</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45946.63664351852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45946.63673611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45947.55820601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45946.59548611111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45847</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45947.34571759259</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45946.65706018519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45946.59561342592</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45946.5737037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45947.34578703704</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45685.92931712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45950.46918981482</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45950.61075231482</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45642.59327546296</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45949.40681712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45859</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45664</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45035.92714120371</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45580.34554398148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45953.65697916667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44981</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45952</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45859.92579861111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45342</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45953.65693287037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45952.44763888889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45956.38578703703</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44897</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44897</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>45956.34443287037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>45956.34490740741</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
         <v>44741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45957.65459490741</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26179,7 +26179,7 @@
         <v>44985</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>45957</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44316.52800925926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>45954.55297453704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>45771.71908564815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>45664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45956.34488425926</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>45956.34519675926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>45956.36496527777</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45957</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45956.34459490741</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45958.67831018518</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45646.61081018519</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45187</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45583</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>44977</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>44977</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>44617</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>44977</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>44977</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45566.59611111111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>44664</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45560.69846064815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45560.6984837963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45477.92725694444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45960.6988425926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45960.60210648148</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45965</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45964.70950231481</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45965.50621527778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45964.70471064815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45881.61543981481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45965.44887731481</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45965.66197916667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45965.66282407408</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45880.95241898148</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45964.6821875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45965.58432870371</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45880.94430555555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45965.49263888889</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45965.50042824074</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45644.54008101852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45371</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45968.34435185185</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45883.64178240741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45971.49157407408</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45644.34611111111</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45000</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45972</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45629</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45972</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45975</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45884</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44565.92903935185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>45974.34443287037</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45646.54873842592</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45975.62664351852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45975.72868055556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29592,7 +29592,7 @@
         <v>45978.50950231482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45886.34490740741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45708</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45708</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45708</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45978.61122685186</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45708</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45979.61831018519</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>46021.46907407408</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45978.49459490741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45712.58021990741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45721</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>46018.78116898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30338,7 +30338,7 @@
         <v>45979.40319444444</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
         <v>45224</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45978</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>44876.57346064815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30571,7 +30571,7 @@
         <v>45978.50525462963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45379</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>44999</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>45572.54814814815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30799,7 +30799,7 @@
         <v>45978</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30856,7 +30856,7 @@
         <v>45978</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30913,7 +30913,7 @@
         <v>46020.47179398148</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30970,7 +30970,7 @@
         <v>45740</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31027,7 +31027,7 @@
         <v>45553.3859837963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31089,7 +31089,7 @@
         <v>44239</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
         <v>45161.94293981481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>45251</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44973</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31322,7 +31322,7 @@
         <v>45981.49033564814</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31379,7 +31379,7 @@
         <v>45981.54108796296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>44974.36233796296</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31493,7 +31493,7 @@
         <v>45381</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>46026.64652777778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31607,7 +31607,7 @@
         <v>46027.53427083333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>46024.60086805555</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>45691.46903935185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>44917</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45714</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45982.51090277778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>46027.56204861111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>44909</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>46027.55047453703</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45215</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32177,7 +32177,7 @@
         <v>46027</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44459</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>45247</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>45533</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44859</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>45712.58931712963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>45988.63575231482</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         <v>46030.44842592593</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32638,7 +32638,7 @@
         <v>45701.49054398148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32695,7 +32695,7 @@
         <v>45989.556875</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45642.58465277778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>46030</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         <v>45708</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         <v>45989.64967592592</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         <v>45098</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33037,7 +33037,7 @@
         <v>45098</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33094,7 +33094,7 @@
         <v>45706.785</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33151,7 +33151,7 @@
         <v>45989</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>46020</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33265,7 +33265,7 @@
         <v>46034.55488425926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33322,7 +33322,7 @@
         <v>46034.55892361111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33379,7 +33379,7 @@
         <v>45992</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         <v>45992.56959490741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45992</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33550,7 +33550,7 @@
         <v>45992.45798611111</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33607,7 +33607,7 @@
         <v>45992</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33664,7 +33664,7 @@
         <v>45740</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>45740</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45740</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45992</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>45993</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45385</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45385</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>45993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45990.65666666667</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45758</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>45758.69837962963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>46034.56065972222</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>45992.44833333333</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>45992</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34467,7 +34467,7 @@
         <v>45992</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45251</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45992.45686342593</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>46034.55708333333</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45729.36509259259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>45303</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44442.43422453704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45629.62572916667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34938,7 +34938,7 @@
         <v>45659.51613425926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>46035.57373842593</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35057,7 +35057,7 @@
         <v>46037.45152777778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35114,7 +35114,7 @@
         <v>46035.57366898148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>45995</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35233,7 +35233,7 @@
         <v>45995.34258101852</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35290,7 +35290,7 @@
         <v>45161</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>45770.47331018518</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45756.58515046296</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45476.76228009259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45996</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>45999</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>45996.60962962963</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35689,7 +35689,7 @@
         <v>45996.59778935185</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         <v>45996.60475694444</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         <v>46041.66591435186</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35860,7 +35860,7 @@
         <v>45670.45391203704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35917,7 +35917,7 @@
         <v>46037.46954861111</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35979,7 +35979,7 @@
         <v>46037.49084490741</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>46041.66304398148</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45610</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         <v>44883.92393518519</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45527</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36269,7 +36269,7 @@
         <v>45740</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>46000.44612268519</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>46000.6856712963</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         <v>44895</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36497,7 +36497,7 @@
         <v>46001.68658564815</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>45035</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>45670.69877314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>45679</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>46045.44876157407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45596.72625</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45691.57331018519</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>45001</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>46002.41836805556</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>46006</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37077,7 +37077,7 @@
         <v>46006.5471412037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>45183</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45589</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>46006.54866898148</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37310,7 +37310,7 @@
         <v>46007.69832175926</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44890</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>46006.54785879629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45412</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>46009</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>46005</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45558.6815162037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>46009.53162037037</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37781,7 +37781,7 @@
         <v>44546.92277777778</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>46008.61600694444</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37895,7 +37895,7 @@
         <v>44322</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37952,7 +37952,7 @@
         <v>45706</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38009,7 +38009,7 @@
         <v>45978</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         <v>46009.34431712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38128,7 +38128,7 @@
         <v>45484</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45644</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>46010.51313657407</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>45436</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>45685</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>46010.46950231482</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>46010.47768518519</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45916</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>45635</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45635</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44490.43877314815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>46010.67465277778</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>46010.47444444444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45916</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45916</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>46010</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>46010</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>46010</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>46010</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45470.93118055556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>46012.60145833333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>46010</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45443</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>44400</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>46010.4771875</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45691.42896990741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45691.45101851852</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>46010</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45443</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39848,7 +39848,7 @@
         <v>44852</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39905,7 +39905,7 @@
         <v>45496</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39967,7 +39967,7 @@
         <v>45350</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>45379</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40081,7 +40081,7 @@
         <v>45461</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40138,7 +40138,7 @@
         <v>45112</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         <v>46010</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45638</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>46059.57208333333</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>44384</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>44385</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45344</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45719</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45264</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45681.46563657407</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45075</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45012</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40827,7 +40827,7 @@
         <v>45756</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40884,7 +40884,7 @@
         <v>45756.60434027778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40941,7 +40941,7 @@
         <v>44897</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40998,7 +40998,7 @@
         <v>45562.35875</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>45077.82532407407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>45670.55724537037</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41169,7 +41169,7 @@
         <v>45688.69949074074</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41226,7 +41226,7 @@
         <v>45255</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41283,7 +41283,7 @@
         <v>45596</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41340,7 +41340,7 @@
         <v>45665</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41397,7 +41397,7 @@
         <v>45378</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41454,7 +41454,7 @@
         <v>45379</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41511,7 +41511,7 @@
         <v>45412</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41573,7 +41573,7 @@
         <v>44384</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41630,7 +41630,7 @@
         <v>45232</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41687,7 +41687,7 @@
         <v>45723.65663194445</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41744,7 +41744,7 @@
         <v>44496</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41801,7 +41801,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>45091</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41915,7 +41915,7 @@
         <v>45212</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41977,7 +41977,7 @@
         <v>45212.95483796296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42039,7 +42039,7 @@
         <v>45573.60027777778</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42096,7 +42096,7 @@
         <v>45562</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42153,7 +42153,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>45663</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42267,7 +42267,7 @@
         <v>45664</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42324,7 +42324,7 @@
         <v>45077</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>45225</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42438,7 +42438,7 @@
         <v>44579</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>45204</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>45264</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45323</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>45106</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>45342</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         <v>45016</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42837,7 +42837,7 @@
         <v>44546.92262731482</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42894,7 +42894,7 @@
         <v>45601.68076388889</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42951,7 +42951,7 @@
         <v>45601.68283564815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43008,7 +43008,7 @@
         <v>45463</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43065,7 +43065,7 @@
         <v>45714</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43122,7 +43122,7 @@
         <v>45544</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43179,7 +43179,7 @@
         <v>44334</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43236,7 +43236,7 @@
         <v>45771.71979166667</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43298,7 +43298,7 @@
         <v>44960.92371527778</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43355,7 +43355,7 @@
         <v>44960</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43412,7 +43412,7 @@
         <v>45187</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43469,7 +43469,7 @@
         <v>45232</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43526,7 +43526,7 @@
         <v>44445</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43583,7 +43583,7 @@
         <v>44722.57129629629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43640,7 +43640,7 @@
         <v>44872</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43697,7 +43697,7 @@
         <v>44985</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>44917</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43811,7 +43811,7 @@
         <v>44580</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43868,7 +43868,7 @@
         <v>45663</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43925,7 +43925,7 @@
         <v>45309</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43982,7 +43982,7 @@
         <v>45098</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44039,7 +44039,7 @@
         <v>45204</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         <v>45255</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44153,7 +44153,7 @@
         <v>45530.39005787037</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44210,7 +44210,7 @@
         <v>45411</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44267,7 +44267,7 @@
         <v>45411</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44324,7 +44324,7 @@
         <v>45558.62070601852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44386,7 +44386,7 @@
         <v>45104</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         <v>44263.39423611111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44500,7 +44500,7 @@
         <v>45323</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44557,7 +44557,7 @@
         <v>44897.92459490741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44614,7 +44614,7 @@
         <v>45035</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44671,7 +44671,7 @@
         <v>45701</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44728,7 +44728,7 @@
         <v>45618.47244212963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44785,7 +44785,7 @@
         <v>45327</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44842,7 +44842,7 @@
         <v>45501.91951388889</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44899,7 +44899,7 @@
         <v>45663</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44956,7 +44956,7 @@
         <v>45720.5630787037</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45013,7 +45013,7 @@
         <v>45749.64261574074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45070,7 +45070,7 @@
         <v>44859</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45127,7 +45127,7 @@
         <v>44610</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45184,7 +45184,7 @@
         <v>45392.92930555555</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45241,7 +45241,7 @@
         <v>44473</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45298,7 +45298,7 @@
         <v>44897.92487268519</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45355,7 +45355,7 @@
         <v>44966</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         <v>45379</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45469,7 +45469,7 @@
         <v>45712</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45526,7 +45526,7 @@
         <v>45013</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45583,7 +45583,7 @@
         <v>45676.8134375</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45640,7 +45640,7 @@
         <v>45712</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45697,7 +45697,7 @@
         <v>45653.48405092592</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45754,7 +45754,7 @@
         <v>45727</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         <v>45328</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45868,7 +45868,7 @@
         <v>45441.9291087963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45639</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>45054</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>44441</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>45629.36509259259</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>45727</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>44995</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>45692.55262731481</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>44463</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>44914</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>45683</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>45260</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>45708</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45219</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45792</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45615.62185185185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45792</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>45792</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>45499</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         <v>45140</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47122,7 +47122,7 @@
         <v>45699.56368055556</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47184,7 +47184,7 @@
         <v>44859</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47241,7 +47241,7 @@
         <v>45659.45902777778</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47298,7 +47298,7 @@
         <v>45639.64152777778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47355,7 +47355,7 @@
         <v>45688.68407407407</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47412,7 +47412,7 @@
         <v>45700.59357638889</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45453</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45696</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45999</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45043</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45376</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44490</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>46052</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45858.32641203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45642.55074074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45664</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45664</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>45463</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45664</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45664</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44658.62614583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45915.39149305555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45938.72043981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>45433</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44839.5678125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44733</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45680</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45824.59027777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45835.52969907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45834</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45841.52672453703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>45915</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45254.4122337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45918</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45638</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45642.41423611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45938</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45887.58668981482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45956.34490740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45956.34488425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>45727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45622.7453125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>46037.62674768519</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>45644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44867</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>46008.58657407408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>46069</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>46026.65243055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45952</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45035.9266087963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>45463</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44868</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44491.61055555556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44617</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44852.61033564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44280</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44778.92490740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44868</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44634</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44363</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44868</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>44558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>44746.92638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>44337</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>44586</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>44868</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>44634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>44491.60335648148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>44456.59774305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44558</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>44658.62795138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44264</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44477</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44376.67407407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44379</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44676.60796296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44692.93740740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44526</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44617</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44371.61725694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44837</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44839</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44550</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44789</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44347</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44552</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44459</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44491</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44841.59989583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44800</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44529</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44446</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44272</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>44480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44565.92913194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44543.92140046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>44264</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44620.92225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44620.92230324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44558</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44558</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44852.58707175926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44264</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44839</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44977</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>45469.66545138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45342</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44897</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>45369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>45328</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45392</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45659.51113425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>45035.92709490741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45642.56950231481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44946</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44992</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45565.38912037037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45565.39958333333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45721</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45751.34513888889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45582</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>45482.92732638889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45646.56238425926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45646.56674768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45142.4560300926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45278.42126157408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44987</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>45618.44335648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45390</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45701.49048611111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45573.59376157408</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>45035.92607638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45496.95108796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44859</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>45205</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>45205</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>45664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45769.47217592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>45566.64958333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45664</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45664</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45558.41288194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44435</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44861</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44859</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45688.68412037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45351</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>45638.75081018519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>45688.6995949074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45687.40212962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>45727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>45603.74953703704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45385</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>44966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45589.34434027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45463</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45469.68552083334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45561.72005787037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45635.45822916667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45040.94335648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45758.69814814815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>45886.34465277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45661</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>45665</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45463</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45770.46388888889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44426</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45884.65607638889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45887.53751157408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44832</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45603.49142361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45484</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44503</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45884.65483796296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45595.37256944444</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45824</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45393</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45412</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>45889.38579861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45496</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45824.63576388889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45825.3443287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45677.40685185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45792</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45505</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45824.58546296296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45826.57041666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45890.61241898148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45826.38290509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45827.40512731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45618.44334490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45826.61388888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45826.6207175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45826.65047453704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45827.4106712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45890.44831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45826.58424768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45826.59502314815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45827.39997685186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45827.40238425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45659.59091435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45895.65347222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45826.6047800926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45601.67827546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45831</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45831.40694444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45701.63607638889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45702.40306712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45831</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45897.28637731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45896.61263888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45832.36484953704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45896</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45799.3653587963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45896.6166087963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45862.48990740741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45862.53150462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45694</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45835.59313657408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45565.49769675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45770.57881944445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45835.63332175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45835.49930555555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45833.87428240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45835.53480324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>45897.93575231481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45835.64934027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>45835.63008101852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45224</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45835.64260416666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45279</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45838.41540509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44886</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45838.41660879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45205</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45351</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45632</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45727</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45904.51274305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45904.51621527778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45160</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45838.41445601852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45841.69819444444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45909.66664351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45909.66799768519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45909.66228009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45909.6640625</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45665</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45841.61747685185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45841.65722222222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44960</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45910.40729166667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45399.36019675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45679.40358796297</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45685</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45614.69736111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45356.96326388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45847</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>45621.42574074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45915.38332175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45663</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45847</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45469.67459490741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45917.55898148148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>45224</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45341</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>45685.92931712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45420</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45918</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45918</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45859</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45922.5109837963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45540</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45922</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45922.51094907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45918</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45922.51091435185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45918</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45924.5737962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44477</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44477</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45433.45890046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45925.68186342593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45925</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45925</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45925.61494212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45859.92579861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45924</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45225</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44735.5158912037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45926.3683912037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45758.69832175926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45670.69847222222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45583</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45712.56173611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45643.48357638889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45930</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45575.66403935185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45932.46949074074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45009</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>45932.38608796296</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45932.54988425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45932.56042824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45936.65599537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45881.61543981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45936.63619212963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45880.95241898148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45826</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45880.94430555555</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45936.42197916667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45936.61344907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45642.59327546296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45883.64178240741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45938.95688657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45035.92714120371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>45580.34554398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44981</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>45938.40929398148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45342</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45939.36579861111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44897</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44897</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45943</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44985</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44316.52800925926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45884</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45943.68516203704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45943.68868055556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45771.71908564815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45664</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45664</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45945.47056712963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45945.57474537037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45886.34490740741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45945.4567824074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45646.61081018519</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>45945.46797453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>45187</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>45946.65719907408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45946.63664351852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45946.63673611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45947.55820601852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44977</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44977</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45946.59548611111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44617</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44977</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44977</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45947.34571759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45946.65706018519</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45946.59561342592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45946.5737037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45566.59611111111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44664</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45560.69846064815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45560.6984837963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45947.34578703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45950.46918981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45950.61075231482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45477.92725694444</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45949.40681712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45664</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45953.65697916667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45952</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45953.65693287037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45952.44763888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45644.54008101852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45371</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45956.38578703703</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45956.34443287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45957.65459490741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45957</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45954.55297453704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45956.34519675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>45956.36496527777</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45957</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45644.34611111111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45956.34459490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45958.67831018518</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45000</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45629</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45960.6988425926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45960.60210648148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>44565.92903935185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         <v>45646.54873842592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45965</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45964.70950231481</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45965.50621527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45964.70471064815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45965.44887731481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45965.66197916667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>45965.66282407408</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45712.58021990741</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45964.6821875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45965.58432870371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>44876.57346064815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45965.49263888889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45965.50042824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45379</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44999</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45572.54814814815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>45553.3859837963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45161.94293981481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45251</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44973</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45968.34435185185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>44974.36233796296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45971.49157407408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45381</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45972</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45691.46903935185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>44917</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45972</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>44909</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45975</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45974.34443287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45215</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>45975.62664351852</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45975.72868055556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>45978.50950231482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>45708</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45708</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45708</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45978.61122685186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44459</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>45708</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30249,7 +30249,7 @@
         <v>45979.61831018519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45978.49459490741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>45247</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>45721</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>45979.40319444444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>45978</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>45978.50525462963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45533</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44859</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45712.58931712963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45978</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45978</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45740</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45701.49054398148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45642.58465277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>45981.49033564814</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45981.54108796296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31218,7 +31218,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45706.785</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>45982.51090277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45385</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45385</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45758</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45758.69837962963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>45251</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>45988.63575231482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45989.556875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45729.36509259259</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45303</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45708</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45989.64967592592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45989</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>46034.55488425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>46034.55892361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>44442.43422453704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45629.62572916667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45992</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45659.51613425926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45992.56959490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45992</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45992.45798611111</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45992</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45740</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45740</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45740</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45992</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45990.65666666667</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45161</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>46034.56065972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45992.44833333333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45992</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45992</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45770.47331018518</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45992.45686342593</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>46034.55708333333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45756.58515046296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45476.76228009259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>46035.57373842593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>46037.45152777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>46035.57366898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45995</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45670.45391203704</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45995.34258101852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45610</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44883.92393518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45996</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45527</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45999</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45996.60962962963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45996.59778935185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45996.60475694444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>46041.66591435186</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>46037.46954861111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>46037.49084490741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>46041.66304398148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>44895</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45035</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>45740</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45670.69877314815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>46000.44612268519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>46000.6856712963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45679</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>45596.72625</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>45691.57331018519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>46001.68658564815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45001</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>46045.44876157407</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45183</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>46002.41836805556</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>45589</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>46006</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44890</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>46006.5471412037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45412</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45558.6815162037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44546.92277777778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>46006.54866898148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>46007.69832175926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44322</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46006.54785879629</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>46009</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>46005</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45484</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>46009.53162037037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>45644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>45436</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45685</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44490.43877314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>46008.61600694444</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45470.93118055556</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44400</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>46009.34431712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>45691.42896990741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45691.45101851852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>46010.51313657407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>46010.46950231482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46010.47768518519</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45916</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>45635</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>45635</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46010.67465277778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46010.47444444444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45916</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45916</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>46010</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>46010</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>46010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>46010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46012.60145833333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>46010</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45443</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>45496</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46010.4771875</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>45635</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46010</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>45443</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>45350</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>45379</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>45112</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45638</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46010</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>46059.57208333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44384</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44385</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45461</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>46018.78116898148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45344</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45719</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>46020</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45264</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45681.46563657407</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45075</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45012</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>46020.47179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>46021.46907407408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46065.5119212963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>46065.48962962963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46065.50854166667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46065.51049768519</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>45756</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45756.60434027778</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>44897</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45562.35875</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45978</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46027.55047453703</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46024.60086805555</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>45077.82532407407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45670.55724537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46027.56204861111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46026.64652777778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>45688.69949074074</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>46027.53427083333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>46027</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>45255</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45596</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>45665</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>45378</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>45379</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>45412</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>44384</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40894,7 +40894,7 @@
         <v>45232</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40951,7 +40951,7 @@
         <v>46030</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45723.65663194445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>44496</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41122,7 +41122,7 @@
         <v>46030.44842592593</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         <v>45054</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41241,7 +41241,7 @@
         <v>45091</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41298,7 +41298,7 @@
         <v>45212</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>45212.95483796296</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>45573.60027777778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>45562</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>45040</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>45663</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41650,7 +41650,7 @@
         <v>45664</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         <v>45077</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>45225</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>44579</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45204</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45264</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>45323</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45106</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45342</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>45016</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>44546.92262731482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>45601.68076388889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>45601.68283564815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>45463</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>45714</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>45544</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44334</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45771.71979166667</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44960.92371527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44960</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>45187</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>45232</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44445</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44722.57129629629</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43023,7 +43023,7 @@
         <v>44872</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43080,7 +43080,7 @@
         <v>44985</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43137,7 +43137,7 @@
         <v>44917</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43194,7 +43194,7 @@
         <v>44580</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>45663</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>45309</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>45098</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>45204</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43479,7 +43479,7 @@
         <v>45255</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43536,7 +43536,7 @@
         <v>45530.39005787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43593,7 +43593,7 @@
         <v>45411</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43650,7 +43650,7 @@
         <v>45411</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43707,7 +43707,7 @@
         <v>45558.62070601852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>45104</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>44263.39423611111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43883,7 +43883,7 @@
         <v>45323</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43940,7 +43940,7 @@
         <v>44897.92459490741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43997,7 +43997,7 @@
         <v>45035</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44054,7 +44054,7 @@
         <v>45701</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44111,7 +44111,7 @@
         <v>45618.47244212963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44168,7 +44168,7 @@
         <v>45327</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44225,7 +44225,7 @@
         <v>45501.91951388889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44282,7 +44282,7 @@
         <v>45663</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44339,7 +44339,7 @@
         <v>45720.5630787037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44396,7 +44396,7 @@
         <v>45749.64261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44453,7 +44453,7 @@
         <v>44859</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44510,7 +44510,7 @@
         <v>44610</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         <v>45392.92930555555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44473</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44681,7 +44681,7 @@
         <v>44897.92487268519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44738,7 +44738,7 @@
         <v>44966</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44795,7 +44795,7 @@
         <v>45379</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>45712</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>45013</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>45676.8134375</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45712</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45653.48405092592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45727</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45328</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45441.9291087963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45308,7 +45308,7 @@
         <v>45639</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45365,7 +45365,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45422,7 +45422,7 @@
         <v>44441</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45479,7 +45479,7 @@
         <v>45629.36509259259</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45536,7 +45536,7 @@
         <v>45727</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>44995</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45692.55262731481</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>44463</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45683</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45260</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45708</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45219</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45792</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45615.62185185185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45792</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>45792</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46391,7 +46391,7 @@
         <v>45499</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>45140</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>45699.56368055556</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46567,7 +46567,7 @@
         <v>44859</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46624,7 +46624,7 @@
         <v>45659.45902777778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46681,7 +46681,7 @@
         <v>45639.64152777778</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>45688.68407407407</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>45700.59357638889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>45688.68416666667</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>45660.6911574074</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>45330.46430555556</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45230</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45194</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45811</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>45813.34618055556</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45813</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45817</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45453</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45696</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45999</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45043</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45376</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45831</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44490</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>46052</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45858.32641203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45986</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>45642.55074074074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>45664</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45664</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>45463</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2274,7 +2274,7 @@
         <v>45664</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45664</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44673</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44658.62614583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45915.39149305555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45938.72043981482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45740</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>45433</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45239</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44839.5678125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44733</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45680</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>45824.59027777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45835.52969907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45834</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>45841.52672453703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>45915</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45254.4122337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45918</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45638</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>45642.41423611111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>45938</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>45887.58668981482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>45956.34490740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45956.34488425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>45727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>45622.7453125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>46037.62674768519</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>45644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>44867</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>46008.58657407408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44951</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>46069</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>46026.65243055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         <v>45952</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45035.9266087963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45664</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>45463</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44868</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44587</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44491.61055555556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44617</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44852.61033564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44280</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44778.92490740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44868</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44634</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44363</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44868</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>44558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>44746.92638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>44337</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>44586</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>44868</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>44634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>44491.60335648148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>44456.59774305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44558</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>44658.62795138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44264</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44477</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44376.67407407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7764,7 +7764,7 @@
         <v>44379</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44676.60796296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44692.93740740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44526</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44617</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44371.61725694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44837</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44839</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44550</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44789</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44347</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44552</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44459</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44491</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44841.59989583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44800</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44529</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44446</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44272</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>44480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44565.92913194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44543.92140046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>44264</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44620.92225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44620.92230324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44558</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44558</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44852.58707175926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44264</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44839</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>44977</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>45469.66545138889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45342</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>44897</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>45369</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>45328</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45392</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>45659.51113425926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>45035.92709490741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45642.56950231481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44946</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>44992</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45565.38912037037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>45565.39958333333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45721</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>45751.34513888889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>45582</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>45482.92732638889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>45646.56238425926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45646.56674768519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>45142.4560300926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>45278.42126157408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44987</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>45618.44335648148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>45390</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45701.49048611111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45573.59376157408</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45462</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>45035.92607638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45496.95108796296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44859</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>45205</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>45205</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>45664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>45769.47217592593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44854</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>45566.64958333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45664</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45664</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         <v>45558.41288194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
         <v>44435</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12406,7 +12406,7 @@
         <v>44861</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>44859</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>45610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45688.68412037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45351</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>45638.75081018519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>45688.6995949074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>45687.40212962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>45727</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>45603.74953703704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45385</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>44966</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45589.34434027778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>45463</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45469.68552083334</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45561.72005787037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45635.45822916667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45040.94335648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45758.69814814815</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>45886.34465277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45661</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>45665</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45463</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45770.46388888889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44426</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>45884.65607638889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45887.53751157408</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44832</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>45603.49142361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45484</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44503</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45884.65483796296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45145</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45595.37256944444</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45824</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45393</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45412</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>45889.38579861111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>45496</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45496</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45824.63576388889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>45825.3443287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45677.40685185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45792</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45505</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45824.58546296296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45826.57041666667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45826</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45890.61241898148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>45826.38290509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45827.40512731481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>45618.44334490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45826.61388888889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45826.6207175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>45826.65047453704</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15700,7 +15700,7 @@
         <v>45890</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>45827.4106712963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>45890.44831018519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45826.58424768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45826.59502314815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45827.39997685186</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>45827.40238425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>45659.59091435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16161,7 +16161,7 @@
         <v>45895.65347222222</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45826.6047800926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45826</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45601.67827546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>45831</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>45831.40694444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>45701.63607638889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45702.40306712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45831</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>45897.28637731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>45896.61263888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>45832.36484953704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45896</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>45799.3653587963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>45896.6166087963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>45807</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44937</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>45862.48990740741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>45862.53150462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>45694</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>45835.59313657408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>45565.49769675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>45770.57881944445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>45835.63332175926</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>45835.49930555555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17653,7 +17653,7 @@
         <v>45833.87428240741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17710,7 +17710,7 @@
         <v>45835.53480324074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>45897.93575231481</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>45835.64934027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>45835.63008101852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45224</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45835.64260416666</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45279</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18171,7 +18171,7 @@
         <v>45838.41540509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44886</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>45838.41660879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45205</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45351</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45632</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45727</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>45904.51274305556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>45904.51621527778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>45111</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>45160</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45838.41445601852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45841.69819444444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>45208</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>45909.66664351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>45909.66799768519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>45086</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45909.66228009259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45909.6640625</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45665</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45841.61747685185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45841.65722222222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44960</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45910.40729166667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45399.36019675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45679.40358796297</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>45685</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>45614.69736111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45915</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45356.96326388889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45847</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>45621.42574074074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>45915.38332175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>45915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45663</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>45847</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45469.67459490741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>45917.55898148148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20414,7 +20414,7 @@
         <v>44746</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>45224</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>45341</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>45685.92931712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45420</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45918</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45596</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45918</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45859</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45922.5109837963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45540</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45922</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>45922.51094907407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45918</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45922.51091435185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>45918</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>45924.5737962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44477</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44477</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45433.45890046296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>45925.68186342593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>45925</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45925</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21792,7 +21792,7 @@
         <v>45925.61494212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>45859.92579861111</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>45924</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45225</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45113</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>44735.5158912037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45926.3683912037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45758.69832175926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45670.69847222222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45583</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45712.56173611111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>45643.48357638889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>45930</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>45575.66403935185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>45932.46949074074</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>45009</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>45932.38608796296</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45932.54988425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45932.56042824074</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45936.65599537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45881.61543981481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>45936.63619212963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45880.95241898148</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>45826</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45880.94430555555</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23304,7 +23304,7 @@
         <v>45936.42197916667</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23361,7 +23361,7 @@
         <v>45936.61344907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>45642.59327546296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>45883.64178240741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45938.95688657407</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>45035.92714120371</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23646,7 +23646,7 @@
         <v>45580.34554398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44981</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>45938.40929398148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45342</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45939.36579861111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44897</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>44897</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45943</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>44985</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44316.52800925926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45884</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45943.68516203704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45943.68868055556</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45771.71908564815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45664</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45664</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45945.47056712963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45945.57474537037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45886.34490740741</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45945.4567824074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45646.61081018519</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>45945.46797453704</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>45187</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>45946.65719907408</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45946.63664351852</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45946.63673611111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45947.55820601852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44977</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44977</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45946.59548611111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>44617</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44977</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>44977</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45947.34571759259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45946.65706018519</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45946.59561342592</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45946.5737037037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45566.59611111111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>44664</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25951,7 +25951,7 @@
         <v>45560.69846064815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26013,7 +26013,7 @@
         <v>45560.6984837963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>45947.34578703704</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45950.46918981482</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45950.61075231482</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45477.92725694444</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45949.40681712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>45664</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45953.65697916667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>45952</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>45953.65693287037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>45952.44763888889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>45644.54008101852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45371</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45956.38578703703</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45956.34443287037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>45957.65459490741</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>45957</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>45954.55297453704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>45956.34519675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>45956.36496527777</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45957</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45644.34611111111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45956.34459490741</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>45958.67831018518</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45000</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45629</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45960.6988425926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27602,7 +27602,7 @@
         <v>45960.60210648148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27659,7 +27659,7 @@
         <v>44565.92903935185</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         <v>45646.54873842592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27773,7 +27773,7 @@
         <v>45965</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27830,7 +27830,7 @@
         <v>45964.70950231481</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27887,7 +27887,7 @@
         <v>45965.50621527778</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>45964.70471064815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45965.44887731481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>45965.66197916667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>45965.66282407408</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45712.58021990741</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28229,7 +28229,7 @@
         <v>45964.6821875</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>45965.58432870371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>45224</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>44876.57346064815</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>45965.49263888889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45965.50042824074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>45379</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28633,7 +28633,7 @@
         <v>44999</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28690,7 +28690,7 @@
         <v>45572.54814814815</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>45553.3859837963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28809,7 +28809,7 @@
         <v>45161.94293981481</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45251</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44973</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45968.34435185185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>44974.36233796296</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45971.49157407408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45381</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45972</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45691.46903935185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>44917</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45714</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45972</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>44909</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45975</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45974.34443287037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>45215</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>45975.62664351852</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45975.72868055556</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>45978.50950231482</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>45708</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45708</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45708</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45978.61122685186</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>44459</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30192,7 +30192,7 @@
         <v>45708</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30249,7 +30249,7 @@
         <v>45979.61831018519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>45978.49459490741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>45247</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>45721</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>45979.40319444444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>45978</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>45978.50525462963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>45533</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
         <v>44859</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30762,7 +30762,7 @@
         <v>45712.58931712963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30819,7 +30819,7 @@
         <v>45978</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45978</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45740</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45701.49054398148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45642.58465277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31104,7 +31104,7 @@
         <v>45981.49033564814</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31161,7 +31161,7 @@
         <v>45981.54108796296</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31218,7 +31218,7 @@
         <v>45098</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31275,7 +31275,7 @@
         <v>45098</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31332,7 +31332,7 @@
         <v>45706.785</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>45982.51090277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45385</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31503,7 +31503,7 @@
         <v>45385</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31560,7 +31560,7 @@
         <v>45758</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31617,7 +31617,7 @@
         <v>45758.69837962963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31674,7 +31674,7 @@
         <v>45251</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31731,7 +31731,7 @@
         <v>45988.63575231482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>45989.556875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45729.36509259259</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31907,7 +31907,7 @@
         <v>45303</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45708</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45989.64967592592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32083,7 +32083,7 @@
         <v>45989</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32140,7 +32140,7 @@
         <v>46034.55488425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>46034.55892361111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32254,7 +32254,7 @@
         <v>44442.43422453704</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32311,7 +32311,7 @@
         <v>45629.62572916667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45992</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45659.51613425926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45992.56959490741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45992</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45992.45798611111</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45992</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45740</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45740</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45740</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45992</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45993</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45993</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45990.65666666667</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45161</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>46034.56065972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45992.44833333333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45992</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45992</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45770.47331018518</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45992.45686342593</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>46034.55708333333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45756.58515046296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45476.76228009259</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>46035.57373842593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33751,7 +33751,7 @@
         <v>46037.45152777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33808,7 +33808,7 @@
         <v>46035.57366898148</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33870,7 +33870,7 @@
         <v>45995</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33927,7 +33927,7 @@
         <v>45670.45391203704</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33984,7 +33984,7 @@
         <v>45995.34258101852</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34041,7 +34041,7 @@
         <v>45610</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44883.92393518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45996</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45527</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45999</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>45996.60962962963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>45996.59778935185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>45996.60475694444</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>46041.66591435186</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>46037.46954861111</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         <v>46037.49084490741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34678,7 +34678,7 @@
         <v>46041.66304398148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34735,7 +34735,7 @@
         <v>44895</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34792,7 +34792,7 @@
         <v>45035</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34849,7 +34849,7 @@
         <v>45740</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45670.69877314815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>46000.44612268519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>46000.6856712963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>45679</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>45596.72625</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>45691.57331018519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>46001.68658564815</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45001</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>46045.44876157407</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45183</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>46002.41836805556</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>45589</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>46006</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>44890</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>46006.5471412037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45412</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45558.6815162037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44546.92277777778</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>46006.54866898148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>46007.69832175926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44322</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45706</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46006.54785879629</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>46009</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>46005</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45484</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>46009.53162037037</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>45644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>45436</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>45685</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44490.43877314815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>46008.61600694444</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45470.93118055556</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44400</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>46009.34431712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>45691.42896990741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45691.45101851852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>46010.51313657407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>46010.46950231482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37174,7 +37174,7 @@
         <v>46010.47768518519</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45916</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>45635</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37345,7 +37345,7 @@
         <v>45635</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
         <v>46010.67465277778</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46010.47444444444</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>44852</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45916</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45916</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>46010</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>46010</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>46010</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>46010</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46012.60145833333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>46010</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45443</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38086,7 +38086,7 @@
         <v>45496</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>46010.4771875</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38205,7 +38205,7 @@
         <v>45635</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38262,7 +38262,7 @@
         <v>46010</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38319,7 +38319,7 @@
         <v>45443</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38376,7 +38376,7 @@
         <v>45350</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
         <v>45379</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38490,7 +38490,7 @@
         <v>45112</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45638</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>46010</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>46059.57208333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>44384</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>44385</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45461</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>46018.78116898148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>45344</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45719</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>46020</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45264</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45681.46563657407</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39236,7 +39236,7 @@
         <v>45075</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45012</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39350,7 +39350,7 @@
         <v>46020.47179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39407,7 +39407,7 @@
         <v>46021.46907407408</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46065.5119212963</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>46065.48962962963</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46065.50854166667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>46065.51049768519</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>45756</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>45756.60434027778</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>44897</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45562.35875</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>45978</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46027.55047453703</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46024.60086805555</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>45077.82532407407</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>45670.55724537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>46027.56204861111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46026.64652777778</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>45688.69949074074</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>46027.53427083333</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>46027</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>45255</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45596</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>45665</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>45378</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40718,7 +40718,7 @@
         <v>45379</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>45412</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>44384</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40894,7 +40894,7 @@
         <v>45232</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40951,7 +40951,7 @@
         <v>46030</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45723.65663194445</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>44496</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41122,7 +41122,7 @@
         <v>46030.44842592593</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         <v>45054</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41241,7 +41241,7 @@
         <v>45091</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41298,7 +41298,7 @@
         <v>45212</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>45212.95483796296</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>45573.60027777778</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>45562</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>45040</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>45663</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41650,7 +41650,7 @@
         <v>45664</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         <v>45077</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41764,7 +41764,7 @@
         <v>45225</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>44579</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45204</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45264</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
         <v>45323</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45106</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45342</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42163,7 +42163,7 @@
         <v>45016</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42220,7 +42220,7 @@
         <v>44546.92262731482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
         <v>45601.68076388889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42334,7 +42334,7 @@
         <v>45601.68283564815</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42391,7 +42391,7 @@
         <v>45463</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42448,7 +42448,7 @@
         <v>45714</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42505,7 +42505,7 @@
         <v>45544</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42562,7 +42562,7 @@
         <v>44334</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45771.71979166667</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>44960.92371527778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>44960</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>45187</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>45232</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>44445</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44722.57129629629</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43023,7 +43023,7 @@
         <v>44872</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43080,7 +43080,7 @@
         <v>44985</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43137,7 +43137,7 @@
         <v>44917</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43194,7 +43194,7 @@
         <v>44580</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>45663</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>45309</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>45098</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>45204</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43479,7 +43479,7 @@
         <v>45255</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43536,7 +43536,7 @@
         <v>45530.39005787037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43593,7 +43593,7 @@
         <v>45411</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43650,7 +43650,7 @@
         <v>45411</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43707,7 +43707,7 @@
         <v>45558.62070601852</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>45104</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>44263.39423611111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43883,7 +43883,7 @@
         <v>45323</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43940,7 +43940,7 @@
         <v>44897.92459490741</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43997,7 +43997,7 @@
         <v>45035</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44054,7 +44054,7 @@
         <v>45701</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44111,7 +44111,7 @@
         <v>45618.47244212963</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44168,7 +44168,7 @@
         <v>45327</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44225,7 +44225,7 @@
         <v>45501.91951388889</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44282,7 +44282,7 @@
         <v>45663</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44339,7 +44339,7 @@
         <v>45720.5630787037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44396,7 +44396,7 @@
         <v>45749.64261574074</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44453,7 +44453,7 @@
         <v>44859</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44510,7 +44510,7 @@
         <v>44610</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44567,7 +44567,7 @@
         <v>45392.92930555555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         <v>44473</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44681,7 +44681,7 @@
         <v>44897.92487268519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44738,7 +44738,7 @@
         <v>44966</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44795,7 +44795,7 @@
         <v>45379</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44852,7 +44852,7 @@
         <v>45712</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44909,7 +44909,7 @@
         <v>45013</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44966,7 +44966,7 @@
         <v>45676.8134375</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45023,7 +45023,7 @@
         <v>45712</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45080,7 +45080,7 @@
         <v>45653.48405092592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45137,7 +45137,7 @@
         <v>45727</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45194,7 +45194,7 @@
         <v>45328</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45251,7 +45251,7 @@
         <v>45441.9291087963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45308,7 +45308,7 @@
         <v>45639</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45365,7 +45365,7 @@
         <v>45054</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45422,7 +45422,7 @@
         <v>44441</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45479,7 +45479,7 @@
         <v>45629.36509259259</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45536,7 +45536,7 @@
         <v>45727</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45593,7 +45593,7 @@
         <v>44995</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45650,7 +45650,7 @@
         <v>45692.55262731481</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45707,7 +45707,7 @@
         <v>44463</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45764,7 +45764,7 @@
         <v>44914</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45821,7 +45821,7 @@
         <v>45683</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>45260</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45935,7 +45935,7 @@
         <v>45708</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45992,7 +45992,7 @@
         <v>45219</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45792</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46163,7 +46163,7 @@
         <v>45615.62185185185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45792</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46334,7 +46334,7 @@
         <v>45792</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46391,7 +46391,7 @@
         <v>45499</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46448,7 +46448,7 @@
         <v>45140</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46505,7 +46505,7 @@
         <v>45699.56368055556</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46567,7 +46567,7 @@
         <v>44859</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46624,7 +46624,7 @@
         <v>45659.45902777778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46681,7 +46681,7 @@
         <v>45639.64152777778</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46738,7 +46738,7 @@
         <v>45688.68407407407</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46795,7 +46795,7 @@
         <v>45700.59357638889</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46852,7 +46852,7 @@
         <v>45688.68416666667</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46909,7 +46909,7 @@
         <v>45660.6911574074</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>45330.46430555556</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45230</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45194</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45811</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>45813.34618055556</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45813</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45817</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>

--- a/Översikt LULEÅ.xlsx
+++ b/Översikt LULEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45453</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45696</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>45999</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45239</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>44341</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>44280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>45986</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>45831</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>44490</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>45376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>46052</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>45664</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>45664</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>45642.55074074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>45858.32641203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45664</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>45986</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45664</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>45463</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44658.62614583333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45915.39149305555</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>45239</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45938.72043981482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>45740</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45433</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44456</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44839.5678125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>44477</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44733</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45545</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45644</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45887.58668981482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>45680</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>45824.59027777778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45834</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>44951</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>45835.52969907408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45841.52672453703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>45638</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>45915</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>45918</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>45938</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>45727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45642.41423611111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45956.34488425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45956.34490740741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45463</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>45622.7453125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>46008.58657407408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>45254.4122337963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>46026.65243055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>46069</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>45952</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>46037.62674768519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>44867</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45035.9266087963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44868</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44587</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44491.61055555556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44852.61033564815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44617</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44854</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44280</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44778.92490740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44868</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>44634</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>44635</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>44363</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44280</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>44868</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>44558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6951,7 +6951,7 @@
         <v>44852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         <v>44746.92638888889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7065,7 +7065,7 @@
         <v>44586</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>44337</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>44868</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>44634</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>44456.59774305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>44491.60335648148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         <v>44741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44658.62795138889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         <v>44264</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>44558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44477</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7702,7 +7702,7 @@
         <v>44379</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7759,7 +7759,7 @@
         <v>44376.67407407407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         <v>44676.60796296296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
         <v>44558</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44657</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44692.93740740741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44783</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44526</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44617</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44552</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44371.61725694445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44620</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>44837</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44839</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44558</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44789</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44347</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44550</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44552</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44558</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44459</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44491</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44841.59989583334</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>44800</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>44529</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>44272</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>44446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>44565.92913194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44543.92140046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>44264</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44620.92225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44620.92230324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44852.58707175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44558</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>44264</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>44839</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>45681.46563657407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
         <v>45378</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45679</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>45327</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>45205</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44859</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45212</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>45212.95483796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>45392.92930555555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45204</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
         <v>45412</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>44886</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45385</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>45385</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>45433.45890046296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10872,7 +10872,7 @@
         <v>45393</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>44435</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45224</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>45379</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>45098</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45098</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44477</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44477</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>45463</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>45469.66545138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45463</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45436</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44384</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>45527</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45035.92607638889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45035</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>45496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45505</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45341</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45589.34434027778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>45603.74953703704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44992</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44859</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44859</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44985</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44426</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>45632</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44854</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>45663</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>45145</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44861</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>45884.65483796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12773,7 +12773,7 @@
         <v>45883.64178240741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>45884.65607638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>45884</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>45230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13001,7 +13001,7 @@
         <v>45194</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13058,7 +13058,7 @@
         <v>45558.41288194444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         <v>44897.92487268519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44897</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>45792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44960.92371527778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44917</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45886.34490740741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         <v>44937</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13519,7 +13519,7 @@
         <v>45824.63576388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45886.34465277778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44966</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45390</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>45887.53751157408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45811</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45751.34513888889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45890.61241898148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45813</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>45813.34618055556</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>45817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>45889.38579861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14223,7 +14223,7 @@
         <v>45890</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>45009</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>45232</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>45890.44831018519</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>45639</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>45573.60027777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>45688.6995949074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>45770.46388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>45701.63607638889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45824.58546296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>45824</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>45530.39005787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>45895.65347222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>45826.65047453704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>45826.61388888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45826.6207175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45826</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45826.38290509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>45826.57041666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>45826.58424768518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>45826.59502314815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>45896.6166087963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>45896.61263888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>45896</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>45826.6047800926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>45224</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>45825.3443287037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45897.93575231481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45208</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45807</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45799.3653587963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45826</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45897.28637731481</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45827.40512731481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45827.39997685186</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45827.40238425926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45827.4106712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45565.49769675926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45770.57881944445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45142.4560300926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45862.48990740741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45862.53150462963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45904.51274305556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45904.51621527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45832.36484953704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45831</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45091</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45558.62070601852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45831</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45831.40694444445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45833.87428240741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45694</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>45835.53480324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45835.59313657408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45727</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45835.49930555555</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45575.66403935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44867</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45835.63008101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45835.64260416666</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45835.63332175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45835.64934027778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45838.41445601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45350</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45838.41540509259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45838.41660879629</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45910.40729166667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45477.92725694444</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>45909.66228009259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45909.6640625</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>45909.66664351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>45909.66799768519</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>45573.59376157408</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>45841.69819444444</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>45758.69814814815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>45603.49142361111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45841.61747685185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45841.65722222222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>45618.44334490741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44960</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>45618.44335648148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>45012</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>45642.58465277778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>45847</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45847</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>45629</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>45915</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>45915.38332175926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>45685.92931712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>45679.40358796297</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>45077</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>45915</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>45915</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>45646.54873842592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>45661</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>45758</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>45104</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>45859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>45917.55898148148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>45918</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>45918</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>45646.56238425926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45712.58021990741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45113</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45379</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45323</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45621.42574074074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20429,7 +20429,7 @@
         <v>45922.5109837963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20486,7 +20486,7 @@
         <v>45692.55262731481</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
         <v>45922.51091435185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45922</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>45918</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>45918</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20771,7 +20771,7 @@
         <v>45922.51094907407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>45035.92714120371</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20885,7 +20885,7 @@
         <v>45701.49048611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20942,7 +20942,7 @@
         <v>45924.5737962963</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45659.59091435185</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>45859.92579861111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>45924</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>45925</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21227,7 +21227,7 @@
         <v>45161</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21284,7 +21284,7 @@
         <v>45925.61494212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45926.3683912037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>45925.68186342593</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45664</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45925</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44810</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45930</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45932.56042824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45932.54988425926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45932.38608796296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45932.46949074074</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44385</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45583</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44263.39423611111</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44473</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45691.57331018519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45476.76228009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45685</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45880.94430555555</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45691.42896990741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>45691.45101851852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45035.92709490741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45881.61543981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45880.95241898148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45670.69847222222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>45936.42197916667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>45936.61344907407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>44400</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45936.65599537037</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45714</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44966</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>45369</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44617</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45936.63619212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45040</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>45013</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45111</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45769.47217592593</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>45826</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44895</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>44883.92393518519</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45938.40929398148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45496</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>45496</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45596.72625</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45688.69949074074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>45939.36579861111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45938.95688657407</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45412</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>44897</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45702.40306712963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>45943.68516203704</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45054</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45540</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45943.68868055556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45943</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45077.82532407407</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45946.63664351852</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45946.63673611111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>45946.59561342592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45945.4567824074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>45946.59548611111</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>45946.65719907408</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>45946.5737037037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45945.46797453704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45946.65706018519</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>45945.47056712963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45945.57474537037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44897.92459490741</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45463</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45950.46918981482</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45566.59611111111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45947.34578703704</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
         <v>45664</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         <v>45949.40681712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         <v>45758.69837962963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
         <v>45947.55820601852</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
         <v>45086</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45947.34571759259</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>45950.61075231482</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>45646.61081018519</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45610</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45952.44763888889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45952</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>45351</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>45106</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>45954.55297453704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>45496.95108796296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>45953.65697916667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>45953.65693287037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>45957</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45566.64958333333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>45957</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>45770.47331018518</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44664</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>45956.34519675926</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>45956.36496527777</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27027,7 +27027,7 @@
         <v>45958.67831018518</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45956.34443287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45642.56950231481</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>44999</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45381</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45956.38578703703</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>45956.34459490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>44872</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45957.65459490741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44490.43877314815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45379</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45960.60210648148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45960.6988425926</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45644.54008101852</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45964.70950231481</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45392</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45964.70471064815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45964.6821875</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45965.50042824074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45562</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45965.49263888889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45110</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45965.44887731481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45965.50621527778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45965.58432870371</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45965</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45965.66197916667</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45965.66282407408</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45968.34435185185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>45075</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>45971.49157407408</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28824,7 +28824,7 @@
         <v>44977</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45303</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45463</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45974.34443287037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29062,7 +29062,7 @@
         <v>45040.94335648148</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
         <v>45972</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29181,7 +29181,7 @@
         <v>45112</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>44546.92277777778</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29295,7 +29295,7 @@
         <v>44546.92262731482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29352,7 +29352,7 @@
         <v>45972</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29409,7 +29409,7 @@
         <v>45975.72868055556</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29466,7 +29466,7 @@
         <v>45978.50525462963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29523,7 +29523,7 @@
         <v>45978</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
         <v>45721</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         <v>45978</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29694,7 +29694,7 @@
         <v>45975</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
         <v>45706.785</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29808,7 +29808,7 @@
         <v>45978.49459490741</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29865,7 +29865,7 @@
         <v>45161.94293981481</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29927,7 +29927,7 @@
         <v>45595.37256944444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29984,7 +29984,7 @@
         <v>45978</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         <v>45708</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30098,7 +30098,7 @@
         <v>45708</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30155,7 +30155,7 @@
         <v>45708</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30212,7 +30212,7 @@
         <v>45975.62664351852</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>45708</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30326,7 +30326,7 @@
         <v>45978.50950231482</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30383,7 +30383,7 @@
         <v>45740</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>45978.61122685186</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>44610</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>44503</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>45484</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>45979.61831018519</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>45638</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30787,7 +30787,7 @@
         <v>45979.40319444444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30844,7 +30844,7 @@
         <v>45981.49033564814</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>45981.54108796296</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45771.71908564815</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45982.51090277778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         <v>44994</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>45399.36019675926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31191,7 +31191,7 @@
         <v>45533</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31248,7 +31248,7 @@
         <v>45771.71979166667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>45016</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44995</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45988.63575231482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>45643.48357638889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45323</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45610</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45992.45686342593</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>45629.36509259259</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45664</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>45989</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>45712</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45989.64967592592</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45992.56959490741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>45992</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>45992</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32165,7 +32165,7 @@
         <v>45992</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>45420</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45992.44833333333</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>45992.45798611111</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>45992</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45992</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45708</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45740</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45989.556875</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45990.65666666667</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45992</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>45740</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45740</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>45993</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32968,7 +32968,7 @@
         <v>45712.56173611111</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45187</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33082,7 +33082,7 @@
         <v>45993</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         <v>45644</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>45996.60962962963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>45996.59778935185</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>45996.60475694444</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45721</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>45995.34258101852</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33481,7 +33481,7 @@
         <v>45601.68076388889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33538,7 +33538,7 @@
         <v>45601.68283564815</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33595,7 +33595,7 @@
         <v>45995</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
         <v>45996</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
         <v>45653.48405092592</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33766,7 +33766,7 @@
         <v>45999</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33823,7 +33823,7 @@
         <v>46041.66591435186</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33880,7 +33880,7 @@
         <v>46041.66304398148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45740</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33994,7 +33994,7 @@
         <v>46000.44612268519</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34051,7 +34051,7 @@
         <v>46000.6856712963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34108,7 +34108,7 @@
         <v>45729.36509259259</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34170,7 +34170,7 @@
         <v>45204</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34227,7 +34227,7 @@
         <v>46001.68658564815</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34289,7 +34289,7 @@
         <v>45629.62572916667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>45187</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>45385</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>46002.41836805556</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>45224</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>45225</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>45664</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45225</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>46006.5471412037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>45665</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>46045.44876157407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>46006</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>46006.54785879629</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>46006.54866898148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>45098</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45670.69877314815</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>46008.61600694444</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35268,7 +35268,7 @@
         <v>46007.69832175926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>46010.67465277778</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>46010</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>46009.53162037037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45251</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45916</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45443</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>46010.47768518519</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>46010.4771875</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>46010.46950231482</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>46010</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>45635</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>46010.51313657407</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>45635</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>45635</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>46009</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46010</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>46010</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>45916</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45916</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>46010.47444444444</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>46010</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>45443</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46009.34431712963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>46005</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>46010</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45723.65663194445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45727</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>46012.60145833333</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45758.69832175926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45685</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>44852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>44741</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>45205</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>45205</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45714</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>45719</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>46010</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>46059.57208333333</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44735.5158912037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>45278.42126157408</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>46018.78116898148</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37677,7 +37677,7 @@
         <v>45749.64261574074</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>46020</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37791,7 +37791,7 @@
         <v>45756.58515046296</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37848,7 +37848,7 @@
         <v>46020.47179398148</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>45727</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
         <v>45255</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38019,7 +38019,7 @@
         <v>44746</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>44722.57129629629</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>44741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>45461</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>46021.46907407408</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45251</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45160</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45469.67459490741</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>46065.48962962963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>46024.60086805555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44859</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>46065.50854166667</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>44442.43422453704</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>46065.51049768519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>46065.5119212963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>45978</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>46027.55047453703</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45351</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>46026.64652777778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>46027.56204861111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>46027.53427083333</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>46027</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>46030</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>45264</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>46030.44842592593</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45342</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>46034.55488425926</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>46076.3806712963</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         <v>46076.41243055555</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39687,7 +39687,7 @@
         <v>46076</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39744,7 +39744,7 @@
         <v>45247</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39801,7 +39801,7 @@
         <v>46034.55892361111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         <v>45328</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45484</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>46076.45981481481</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45582</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45646.56674768519</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45687.40212962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>46034.56065972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>46034.55708333333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>44960</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>46035.57373842593</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>44890</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>44917</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>45665</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>44565.92903935185</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>46035.57366898148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>45000</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40780,7 +40780,7 @@
         <v>45572.54814814815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>44459</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40894,7 +40894,7 @@
         <v>45562.35875</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40951,7 +40951,7 @@
         <v>45565.38912037037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45565.39958333333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45560.69846064815</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>45560.6984837963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>44909</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41246,7 +41246,7 @@
         <v>46037.46954861111</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>46037.49084490741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>44987</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>46079.58974537037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41489,7 +41489,7 @@
         <v>46037.45152777778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41546,7 +41546,7 @@
         <v>45344</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41603,7 +41603,7 @@
         <v>45596</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         <v>45183</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41717,7 +41717,7 @@
         <v>46080.60869212963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41774,7 +41774,7 @@
         <v>46080.62799768519</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41831,7 +41831,7 @@
         <v>45706</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41888,7 +41888,7 @@
         <v>45561.72005787037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41945,7 +41945,7 @@
         <v>45001</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42002,7 +42002,7 @@
         <v>44322</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42059,7 +42059,7 @@
         <v>45411</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45411</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42173,7 +42173,7 @@
         <v>44496</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>44441</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42287,7 +42287,7 @@
         <v>44384</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42344,7 +42344,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42401,7 +42401,7 @@
         <v>44579</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42458,7 +42458,7 @@
         <v>45614.69736111111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42515,7 +42515,7 @@
         <v>45589</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>45642.59327546296</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45596</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45470.93118055556</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>45232</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>45618.47244212963</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42862,7 +42862,7 @@
         <v>45670.45391203704</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42919,7 +42919,7 @@
         <v>45701.49054398148</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>45255</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>44977</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>44977</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>44981</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>44977</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43261,7 +43261,7 @@
         <v>44977</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43318,7 +43318,7 @@
         <v>45342</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43375,7 +43375,7 @@
         <v>44973</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43432,7 +43432,7 @@
         <v>45665</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43489,7 +43489,7 @@
         <v>44974.36233796296</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43546,7 +43546,7 @@
         <v>45469.68552083334</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43603,7 +43603,7 @@
         <v>45356.96326388889</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43660,7 +43660,7 @@
         <v>45215</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43717,7 +43717,7 @@
         <v>45677.40685185185</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>45659.51613425926</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43836,7 +43836,7 @@
         <v>45558.6815162037</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43898,7 +43898,7 @@
         <v>45342</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43955,7 +43955,7 @@
         <v>45371</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44012,7 +44012,7 @@
         <v>45328</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44069,7 +44069,7 @@
         <v>45462</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44126,7 +44126,7 @@
         <v>45482.92732638889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44183,7 +44183,7 @@
         <v>44876.57346064815</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44240,7 +44240,7 @@
         <v>45635.45822916667</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>45664</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44354,7 +44354,7 @@
         <v>45664</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44411,7 +44411,7 @@
         <v>45309</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44468,7 +44468,7 @@
         <v>45412</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44525,7 +44525,7 @@
         <v>45701</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44582,7 +44582,7 @@
         <v>45663</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44639,7 +44639,7 @@
         <v>45264</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44696,7 +44696,7 @@
         <v>45712</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44753,7 +44753,7 @@
         <v>45670.55724537037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44810,7 +44810,7 @@
         <v>45553.3859837963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44872,7 +44872,7 @@
         <v>45720.5630787037</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44929,7 +44929,7 @@
         <v>44316.52800925926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44986,7 +44986,7 @@
         <v>45712.58931712963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45043,7 +45043,7 @@
         <v>45727</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45100,7 +45100,7 @@
         <v>45379</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45157,7 +45157,7 @@
         <v>45663</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45214,7 +45214,7 @@
         <v>45659.51113425926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45271,7 +45271,7 @@
         <v>45580.34554398148</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45328,7 +45328,7 @@
         <v>45279</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45385,7 +45385,7 @@
         <v>44985</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45442,7 +45442,7 @@
         <v>44580</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45499,7 +45499,7 @@
         <v>45663</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45556,7 +45556,7 @@
         <v>45676.8134375</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45613,7 +45613,7 @@
         <v>45296</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45670,7 +45670,7 @@
         <v>44946</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45727,7 +45727,7 @@
         <v>44897</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45784,7 +45784,7 @@
         <v>44897</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45841,7 +45841,7 @@
         <v>45601.67827546296</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -45898,7 +45898,7 @@
         <v>45756</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         <v>45756.60434027778</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46012,7 +46012,7 @@
         <v>45638.75081018519</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46069,7 +46069,7 @@
         <v>45691.46903935185</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46126,7 +46126,7 @@
         <v>45544</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46183,7 +46183,7 @@
         <v>45441.9291087963</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46240,7 +46240,7 @@
         <v>45664</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46297,7 +46297,7 @@
         <v>45501.91951388889</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46354,7 +46354,7 @@
         <v>45688.68412037037</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
         <v>45644.34611111111</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>44463</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45683</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>44914</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46639,7 +46639,7 @@
         <v>45708</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46696,7 +46696,7 @@
         <v>45792</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46753,7 +46753,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45792</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45219</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45260</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -46981,7 +46981,7 @@
         <v>45792</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47038,7 +47038,7 @@
         <v>45792.51074074074</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47095,7 +47095,7 @@
         <v>45688.68407407407</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47152,7 +47152,7 @@
         <v>45659.45902777778</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>45699.56368055556</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>44859</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45639.64152777778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45499</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47442,7 +47442,7 @@
         <v>45615.62185185185</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47499,7 +47499,7 @@
         <v>45140</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47556,7 +47556,7 @@
         <v>45700.59357638889</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47613,7 +47613,7 @@
         <v>45660.6911574074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47670,7 +47670,7 @@
         <v>45330.46430555556</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         <v>45688.68416666667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
